--- a/tool/excels/feit.xlsx
+++ b/tool/excels/feit.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Documents/Projecten/ICTU/testexceltojson/excel-to-json-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Documents/Projecten/ICTU/GitHub/discipl-law-reg/tool/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2034E8CF-6500-A741-96B8-DB2CD834D651}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6D0253-FEF2-7C45-84E6-D58837CAD5EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3040" windowWidth="28800" windowHeight="14080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feiten" sheetId="1" r:id="rId1"/>
     <sheet name="tabelgenerator" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feiten!$A$1:$I$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feiten!$A$1:$G$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,15 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="145">
-  <si>
-    <t>nr</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="119">
   <si>
     <t>versie (nr-vanaf-tot)</t>
-  </si>
-  <si>
-    <t>juriconnect bronverwijzing</t>
   </si>
   <si>
     <t>brontekst</t>
@@ -408,90 +402,6 @@
   </si>
   <si>
     <t>&lt;&lt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>feit.Awb.1:1.1</t>
-  </si>
-  <si>
-    <t>feit.Awb.1:2.1.belanghebbende</t>
-  </si>
-  <si>
-    <t>feit.Awb.1:3.1</t>
-  </si>
-  <si>
-    <t>feit.Awb.1:3.2</t>
-  </si>
-  <si>
-    <t>feit.Awb.1:3.aanvraag</t>
-  </si>
-  <si>
-    <t>feit.Awb.1:3.4</t>
-  </si>
-  <si>
-    <t>feit.Awb.3:4.2</t>
-  </si>
-  <si>
-    <t>feit.Awb.3:41.1.toezenden.aanvrager</t>
-  </si>
-  <si>
-    <t>feit.Awb.3:41.1.toezenden.belanghebbende</t>
-  </si>
-  <si>
-    <t>feit.Awb.3:41.1.uitreiken.aanvrager</t>
-  </si>
-  <si>
-    <t>feit.Awb.3:41.1.uitreiken.belanghebbende</t>
-  </si>
-  <si>
-    <t>feit.Awb.3:41.2.bekendmaken</t>
-  </si>
-  <si>
-    <t>feit.Awb.3:41.2.anders</t>
-  </si>
-  <si>
-    <t>feit.Awb.3:46</t>
-  </si>
-  <si>
-    <t>feit.Awb.4:1.bestuursorgaan</t>
-  </si>
-  <si>
-    <t>feit.Awb.4:2.1</t>
-  </si>
-  <si>
-    <t>feit.Awb.4:2.1.ondertekend</t>
-  </si>
-  <si>
-    <t>feit.Awb.4:2.1.naam.en.adres</t>
-  </si>
-  <si>
-    <t>feit.Awb.4:2.1.dagtekening</t>
-  </si>
-  <si>
-    <t>feit.Awb.4:2.1.aanduiding</t>
-  </si>
-  <si>
-    <t>feit.Awb.4:2.2</t>
-  </si>
-  <si>
-    <t>feit.Awb.4:4.indienen</t>
-  </si>
-  <si>
-    <t>feit.Awb.4:5.1.a</t>
-  </si>
-  <si>
-    <t>feit.Awb.4:5.1.b</t>
-  </si>
-  <si>
-    <t>feit.Awb.4:5.1.aanvullen</t>
-  </si>
-  <si>
-    <t>feit.Awb.4:5.4</t>
-  </si>
-  <si>
-    <t>feit.Awb.6:3</t>
-  </si>
-  <si>
-    <t>feit.Awb.4:5.1.c</t>
   </si>
   <si>
     <t>(
@@ -537,6 +447,18 @@
   </si>
   <si>
     <t>reference</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>juriconnect</t>
+  </si>
+  <si>
+    <t>sourcetext</t>
+  </si>
+  <si>
+    <t>explanation</t>
   </si>
 </sst>
 </file>
@@ -1149,11 +1071,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1164,13 +1083,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1218,9 +1131,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1895,810 +1805,612 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="40.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="50.83203125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="40.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="50.83203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="28" t="s">
+    <row r="1" spans="1:7" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="119" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="119" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="119" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="B31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="F31" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I32" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I32">
-      <sortCondition ref="A1:A32"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:G32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2716,84 +2428,84 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="28.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="28.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="47.1640625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="28.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="28.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="47.1640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="11"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
+      <c r="A3" s="6"/>
+      <c r="B3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="14" t="str">
-        <f>IF((VLOOKUP(C3,Feiten!B2:I518,1,FALSE))="","",VLOOKUP(C3,Feiten!B2:I518,1,FALSE))</f>
+      <c r="A5" s="6"/>
+      <c r="B5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="11" t="str">
+        <f>IF((VLOOKUP(C3,Feiten!A2:G518,1,FALSE))="","",VLOOKUP(C3,Feiten!A2:G518,1,FALSE))</f>
         <v>[bestuursorgaan]</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="14" t="e">
+      <c r="D5" s="6"/>
+      <c r="E5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="11" t="e">
         <f>IF((VLOOKUP(F3,Feiten!#REF!,1,FALSE))="","",VLOOKUP(F3,Feiten!#REF!,1,FALSE))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="16" t="str">
-        <f>IF((VLOOKUP(C3,Feiten!B2:I518,2,FALSE))="","",VLOOKUP(C3,Feiten!B2:I518,2,FALSE))</f>
+    <row r="6" spans="1:6" ht="409.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="13" t="str">
+        <f>IF((VLOOKUP(C3,Feiten!A2:G518,2,FALSE))="","",VLOOKUP(C3,Feiten!A2:G518,2,FALSE))</f>
         <v>(
 [wetgevende macht]
 OF
@@ -2829,152 +2541,152 @@
 [toetsingscommissie inzet bevoegdheden, bedoeld in art. 32 Wiv]
 )</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="16" t="e">
+      <c r="D6" s="18"/>
+      <c r="E6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="13" t="e">
         <f>IF((VLOOKUP(F3,Feiten!#REF!,2,FALSE))="","",VLOOKUP(F3,Feiten!#REF!,2,FALSE))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="8"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="18" t="str">
-        <f>IF((VLOOKUP(C3,Feiten!B2:I518,3,FALSE))="","",VLOOKUP(C3,Feiten!B2:I518,3,FALSE))</f>
-        <v>feit.Awb.1:1.1</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="18" t="e">
+      <c r="A8" s="6"/>
+      <c r="B8" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="15" t="str">
+        <f>IF((VLOOKUP(C3,Feiten!A2:G518,3,FALSE))="","",VLOOKUP(C3,Feiten!A2:G518,3,FALSE))</f>
+        <v>art. 1:1 lid 1 Awb</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="15" t="e">
         <f>IF((VLOOKUP(F3,Feiten!#REF!,3,FALSE))="","",VLOOKUP(F3,Feiten!#REF!,3,FALSE))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="19" t="str">
-        <f>IF((VLOOKUP(C3,Feiten!B2:I518,4,FALSE))="","",VLOOKUP(C3,Feiten!B2:I518,4,FALSE))</f>
-        <v>art. 1:1 lid 1 Awb</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="19" t="e">
+      <c r="A9" s="6"/>
+      <c r="B9" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="16" t="str">
+        <f>IF((VLOOKUP(C3,Feiten!A2:G518,4,FALSE))="","",VLOOKUP(C3,Feiten!A2:G518,4,FALSE))</f>
+        <v>10-[20110223]-[jjjjmmdd]</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="16" t="e">
         <f>IF((VLOOKUP(F3,Feiten!#REF!,4,FALSE))="","",VLOOKUP(F3,Feiten!#REF!,4,FALSE))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="19" t="str">
-        <f>IF((VLOOKUP(C3,Feiten!B2:I518,5,FALSE))="","",VLOOKUP(C3,Feiten!B2:I518,5,FALSE))</f>
-        <v>10-[20110223]-[jjjjmmdd]</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19" t="e">
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="str">
+        <f>IF((VLOOKUP(C3,Feiten!A2:G518,5,FALSE))="","",VLOOKUP(C3,Feiten!A2:G518,5,FALSE))</f>
+        <v>jci1.3:c:BWBR0005537&amp;hoofdstuk=1&amp;titeldeel=1.1&amp;artikel=1:1&amp;lid=1&amp;z=2017-03-10&amp;g=2017-03-10</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16" t="e">
         <f>IF((VLOOKUP(F3,Feiten!#REF!,5,FALSE))="","",VLOOKUP(F3,Feiten!#REF!,5,FALSE))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="19" t="str">
-        <f>IF((VLOOKUP(C3,Feiten!B2:I518,6,FALSE))="","",VLOOKUP(C3,Feiten!B2:I518,6,FALSE))</f>
-        <v>jci1.3:c:BWBR0005537&amp;hoofdstuk=1&amp;titeldeel=1.1&amp;artikel=1:1&amp;lid=1&amp;z=2017-03-10&amp;g=2017-03-10</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="19" t="e">
-        <f>IF((VLOOKUP(F3,Feiten!#REF!,6,FALSE))="","",VLOOKUP(F3,Feiten!#REF!,6,FALSE))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="19" t="str">
-        <f>IF((VLOOKUP(C3,Feiten!B2:I518,7,FALSE))="","",VLOOKUP(C3,Feiten!B2:I518,7,FALSE))</f>
+    <row r="11" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="16" t="str">
+        <f>IF((VLOOKUP(C3,Feiten!A2:G518,6,FALSE))="","",VLOOKUP(C3,Feiten!A2:G518,6,FALSE))</f>
         <v>{Onder bestuursorgaan wordt verstaan:
 a. een orgaan van een rechtspersoon die krachtens publiekrecht is ingesteld, of
 b. een ander persoon of college, met enig openbaar gezag bekleed.}</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="19" t="e">
+      <c r="D11" s="6"/>
+      <c r="E11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="16" t="e">
+        <f>IF((VLOOKUP(F3,Feiten!#REF!,6,FALSE))="","",VLOOKUP(F3,Feiten!#REF!,6,FALSE))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="16" t="str">
+        <f>IF((VLOOKUP(C3,Feiten!A2:G518,7,FALSE))="","",VLOOKUP(C3,Feiten!A2:G518,7,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16" t="e">
         <f>IF((VLOOKUP(F3,Feiten!#REF!,7,FALSE))="","",VLOOKUP(F3,Feiten!#REF!,7,FALSE))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="19" t="str">
-        <f>IF((VLOOKUP(C3,Feiten!B2:I518,8,FALSE))="","",VLOOKUP(C3,Feiten!B2:I518,8,FALSE))</f>
-        <v/>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="19" t="e">
+      <c r="A13" s="19"/>
+      <c r="B13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16" t="e">
+        <f>IF((VLOOKUP(C3,Feiten!A2:G518,8,FALSE))="","",VLOOKUP(C3,Feiten!A2:G518,8,FALSE))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="16" t="e">
         <f>IF((VLOOKUP(F3,Feiten!#REF!,8,FALSE))="","",VLOOKUP(F3,Feiten!#REF!,8,FALSE))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
